--- a/pred_ohlcv/54/2019-11-02 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-02 GXC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C2" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D2" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E2" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F2" t="n">
-        <v>364.4399</v>
+        <v>41.0419</v>
       </c>
       <c r="G2" t="n">
-        <v>626.6333333333333</v>
+        <v>626.5666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D3" t="n">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E3" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F3" t="n">
-        <v>436.295</v>
+        <v>364.4399</v>
       </c>
       <c r="G3" t="n">
-        <v>626.7666666666667</v>
+        <v>626.6333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -469,15 +480,18 @@
         <v>632</v>
       </c>
       <c r="E4" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F4" t="n">
-        <v>651.0411</v>
+        <v>436.295</v>
       </c>
       <c r="G4" t="n">
-        <v>626.8666666666667</v>
+        <v>626.7666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>632</v>
       </c>
       <c r="C5" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D5" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E5" t="n">
         <v>632</v>
       </c>
       <c r="F5" t="n">
-        <v>7127.1943</v>
+        <v>651.0411</v>
       </c>
       <c r="G5" t="n">
-        <v>626.9833333333333</v>
+        <v>626.8666666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C6" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D6" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E6" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F6" t="n">
-        <v>410.2186</v>
+        <v>7127.1943</v>
       </c>
       <c r="G6" t="n">
-        <v>627.2</v>
+        <v>626.9833333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C7" t="n">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D7" t="n">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E7" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>410.2186</v>
       </c>
       <c r="G7" t="n">
-        <v>627.45</v>
+        <v>627.2</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C8" t="n">
         <v>641</v>
@@ -573,15 +596,18 @@
         <v>641</v>
       </c>
       <c r="E8" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F8" t="n">
-        <v>131.1755</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
-        <v>627.7</v>
+        <v>627.45</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C9" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D9" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E9" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>131.1755</v>
       </c>
       <c r="G9" t="n">
-        <v>628.0166666666667</v>
+        <v>627.7</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C10" t="n">
         <v>646</v>
@@ -625,15 +654,18 @@
         <v>646</v>
       </c>
       <c r="E10" t="n">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F10" t="n">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>628.3333333333334</v>
+        <v>628.0166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F11" t="n">
-        <v>2077.6429</v>
+        <v>189</v>
       </c>
       <c r="G11" t="n">
-        <v>628.6333333333333</v>
+        <v>628.3333333333334</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C12" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D12" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E12" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F12" t="n">
-        <v>3002.8582</v>
+        <v>2077.6429</v>
       </c>
       <c r="G12" t="n">
-        <v>628.8833333333333</v>
+        <v>628.6333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C13" t="n">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D13" t="n">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E13" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F13" t="n">
-        <v>1598.9999</v>
+        <v>3002.8582</v>
       </c>
       <c r="G13" t="n">
-        <v>629.1833333333333</v>
+        <v>628.8833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C14" t="n">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="D14" t="n">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="E14" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F14" t="n">
-        <v>9968.6764513</v>
+        <v>1598.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>629.7833333333333</v>
+        <v>629.1833333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C15" t="n">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="D15" t="n">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="E15" t="n">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="F15" t="n">
-        <v>711.4045</v>
+        <v>9968.6764513</v>
       </c>
       <c r="G15" t="n">
-        <v>629.9333333333333</v>
+        <v>629.7833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,25 +819,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="C16" t="n">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D16" t="n">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="E16" t="n">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F16" t="n">
-        <v>2937.969</v>
+        <v>711.4045</v>
       </c>
       <c r="G16" t="n">
-        <v>630.2166666666667</v>
+        <v>629.9333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -804,18 +854,21 @@
         <v>649</v>
       </c>
       <c r="D17" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E17" t="n">
         <v>649</v>
       </c>
       <c r="F17" t="n">
-        <v>299.25</v>
+        <v>2937.969</v>
       </c>
       <c r="G17" t="n">
-        <v>630.5</v>
+        <v>630.2166666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C18" t="n">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D18" t="n">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E18" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F18" t="n">
-        <v>343.2903</v>
+        <v>299.25</v>
       </c>
       <c r="G18" t="n">
-        <v>630.8333333333334</v>
+        <v>630.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>650</v>
+      </c>
+      <c r="C19" t="n">
         <v>653</v>
       </c>
-      <c r="C19" t="n">
-        <v>655</v>
-      </c>
       <c r="D19" t="n">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E19" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F19" t="n">
-        <v>605.7547</v>
+        <v>343.2903</v>
       </c>
       <c r="G19" t="n">
-        <v>631.2</v>
+        <v>630.8333333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>653</v>
+      </c>
+      <c r="C20" t="n">
         <v>655</v>
       </c>
-      <c r="C20" t="n">
-        <v>658</v>
-      </c>
       <c r="D20" t="n">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E20" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F20" t="n">
-        <v>5408.0325</v>
+        <v>605.7547</v>
       </c>
       <c r="G20" t="n">
-        <v>631.6333333333333</v>
+        <v>631.2</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C21" t="n">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D21" t="n">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E21" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F21" t="n">
-        <v>3828.8718</v>
+        <v>5408.0325</v>
       </c>
       <c r="G21" t="n">
-        <v>632.1333333333333</v>
+        <v>631.6333333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>657</v>
+      </c>
+      <c r="C22" t="n">
         <v>662</v>
       </c>
-      <c r="C22" t="n">
-        <v>666</v>
-      </c>
       <c r="D22" t="n">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="E22" t="n">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F22" t="n">
-        <v>9797.9185</v>
+        <v>3828.8718</v>
       </c>
       <c r="G22" t="n">
-        <v>632.9333333333333</v>
+        <v>632.1333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>662</v>
+      </c>
+      <c r="C23" t="n">
         <v>666</v>
       </c>
-      <c r="C23" t="n">
-        <v>676</v>
-      </c>
       <c r="D23" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E23" t="n">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F23" t="n">
-        <v>609</v>
+        <v>9797.9185</v>
       </c>
       <c r="G23" t="n">
-        <v>633.9</v>
+        <v>632.9333333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C24" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D24" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E24" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F24" t="n">
-        <v>6248.3066</v>
+        <v>609</v>
       </c>
       <c r="G24" t="n">
-        <v>634.75</v>
+        <v>633.9</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>667</v>
       </c>
       <c r="C25" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D25" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E25" t="n">
         <v>666</v>
       </c>
       <c r="F25" t="n">
-        <v>1412.41873037</v>
+        <v>6248.3066</v>
       </c>
       <c r="G25" t="n">
-        <v>635.6833333333333</v>
+        <v>634.75</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,7 +1112,7 @@
         <v>667</v>
       </c>
       <c r="C26" t="n">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D26" t="n">
         <v>676</v>
@@ -1044,12 +1121,15 @@
         <v>666</v>
       </c>
       <c r="F26" t="n">
-        <v>1705.0221</v>
+        <v>1412.41873037</v>
       </c>
       <c r="G26" t="n">
-        <v>636.45</v>
+        <v>635.6833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C27" t="n">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D27" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E27" t="n">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F27" t="n">
-        <v>4720.144</v>
+        <v>1705.0221</v>
       </c>
       <c r="G27" t="n">
-        <v>636.9</v>
+        <v>636.45</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="C28" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D28" t="n">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="E28" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F28" t="n">
-        <v>92</v>
+        <v>4720.144</v>
       </c>
       <c r="G28" t="n">
-        <v>637.4666666666667</v>
+        <v>636.9</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C29" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D29" t="n">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="E29" t="n">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="F29" t="n">
-        <v>2308.589</v>
+        <v>92</v>
       </c>
       <c r="G29" t="n">
-        <v>637.9833333333333</v>
+        <v>637.4666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="C30" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D30" t="n">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="E30" t="n">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F30" t="n">
-        <v>111.47233515</v>
+        <v>2308.589</v>
       </c>
       <c r="G30" t="n">
-        <v>638.5333333333333</v>
+        <v>637.9833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="C31" t="n">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="D31" t="n">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="E31" t="n">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="F31" t="n">
-        <v>141</v>
+        <v>111.47233515</v>
       </c>
       <c r="G31" t="n">
-        <v>638.9</v>
+        <v>638.5333333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>647</v>
+      </c>
+      <c r="C32" t="n">
         <v>646</v>
       </c>
-      <c r="C32" t="n">
-        <v>644</v>
-      </c>
       <c r="D32" t="n">
+        <v>647</v>
+      </c>
+      <c r="E32" t="n">
         <v>646</v>
       </c>
-      <c r="E32" t="n">
-        <v>644</v>
-      </c>
       <c r="F32" t="n">
-        <v>3171.8484</v>
+        <v>141</v>
       </c>
       <c r="G32" t="n">
-        <v>639.25</v>
+        <v>638.9</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C33" t="n">
         <v>644</v>
       </c>
       <c r="D33" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E33" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F33" t="n">
-        <v>444</v>
+        <v>3171.8484</v>
       </c>
       <c r="G33" t="n">
-        <v>639.6</v>
+        <v>639.25</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>644</v>
       </c>
       <c r="C34" t="n">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D34" t="n">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E34" t="n">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F34" t="n">
-        <v>3183.612</v>
+        <v>444</v>
       </c>
       <c r="G34" t="n">
-        <v>640.0833333333334</v>
+        <v>639.6</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C35" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D35" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E35" t="n">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>3183.612</v>
       </c>
       <c r="G35" t="n">
-        <v>640.65</v>
+        <v>640.0833333333334</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>657</v>
       </c>
       <c r="C36" t="n">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D36" t="n">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E36" t="n">
         <v>657</v>
       </c>
       <c r="F36" t="n">
-        <v>1316.5298</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>641.4333333333333</v>
+        <v>640.65</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C37" t="n">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="D37" t="n">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="E37" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="F37" t="n">
-        <v>223.004</v>
+        <v>1316.5298</v>
       </c>
       <c r="G37" t="n">
-        <v>641.7333333333333</v>
+        <v>641.4333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>649</v>
       </c>
       <c r="C38" t="n">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="D38" t="n">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E38" t="n">
         <v>649</v>
       </c>
       <c r="F38" t="n">
-        <v>5644.484</v>
+        <v>223.004</v>
       </c>
       <c r="G38" t="n">
-        <v>642.4</v>
+        <v>641.7333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C39" t="n">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D39" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E39" t="n">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F39" t="n">
-        <v>332.9242</v>
+        <v>5644.484</v>
       </c>
       <c r="G39" t="n">
-        <v>643</v>
+        <v>642.4</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C40" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D40" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E40" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F40" t="n">
-        <v>223</v>
+        <v>332.9242</v>
       </c>
       <c r="G40" t="n">
-        <v>643.6166666666667</v>
+        <v>643</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C41" t="n">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="D41" t="n">
         <v>659</v>
       </c>
       <c r="E41" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F41" t="n">
-        <v>1267.8421</v>
+        <v>223</v>
       </c>
       <c r="G41" t="n">
-        <v>644.1333333333333</v>
+        <v>643.6166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>653</v>
+      </c>
+      <c r="C42" t="n">
         <v>652</v>
       </c>
-      <c r="C42" t="n">
-        <v>644</v>
-      </c>
       <c r="D42" t="n">
+        <v>659</v>
+      </c>
+      <c r="E42" t="n">
         <v>652</v>
       </c>
-      <c r="E42" t="n">
-        <v>644</v>
-      </c>
       <c r="F42" t="n">
-        <v>18124.4248</v>
+        <v>1267.8421</v>
       </c>
       <c r="G42" t="n">
-        <v>644.5166666666667</v>
+        <v>644.1333333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="C43" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D43" t="n">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="E43" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F43" t="n">
-        <v>691.5916999999999</v>
+        <v>18124.4248</v>
       </c>
       <c r="G43" t="n">
-        <v>644.8666666666667</v>
+        <v>644.5166666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>643</v>
+      </c>
+      <c r="C44" t="n">
         <v>642</v>
       </c>
-      <c r="C44" t="n">
-        <v>646</v>
-      </c>
       <c r="D44" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E44" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F44" t="n">
-        <v>871.5042999999999</v>
+        <v>691.5916999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>645.1166666666667</v>
+        <v>644.8666666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C45" t="n">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="D45" t="n">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="E45" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F45" t="n">
-        <v>337.7435</v>
+        <v>871.5042999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>645.2</v>
+        <v>645.1166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>637</v>
       </c>
       <c r="C46" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D46" t="n">
         <v>637</v>
       </c>
       <c r="E46" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F46" t="n">
-        <v>620.215</v>
+        <v>337.7435</v>
       </c>
       <c r="G46" t="n">
-        <v>645.4</v>
+        <v>645.2</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C47" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D47" t="n">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E47" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F47" t="n">
-        <v>3.5515625</v>
+        <v>620.215</v>
       </c>
       <c r="G47" t="n">
-        <v>645.5833333333334</v>
+        <v>645.4</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>640</v>
       </c>
       <c r="F48" t="n">
-        <v>126.6781</v>
+        <v>3.5515625</v>
       </c>
       <c r="G48" t="n">
-        <v>645.7166666666667</v>
+        <v>645.5833333333334</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C49" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D49" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E49" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F49" t="n">
-        <v>6670.8105</v>
+        <v>126.6781</v>
       </c>
       <c r="G49" t="n">
-        <v>645.7</v>
+        <v>645.7166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C50" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D50" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E50" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F50" t="n">
-        <v>144.9105</v>
+        <v>6670.8105</v>
       </c>
       <c r="G50" t="n">
-        <v>645.6166666666667</v>
+        <v>645.7</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C51" t="n">
         <v>630</v>
       </c>
       <c r="D51" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E51" t="n">
         <v>630</v>
       </c>
       <c r="F51" t="n">
-        <v>762.8625</v>
+        <v>144.9105</v>
       </c>
       <c r="G51" t="n">
-        <v>645.5333333333333</v>
+        <v>645.6166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C52" t="n">
         <v>630</v>
       </c>
       <c r="D52" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E52" t="n">
         <v>630</v>
       </c>
       <c r="F52" t="n">
-        <v>489.2892</v>
+        <v>762.8625</v>
       </c>
       <c r="G52" t="n">
-        <v>645.6833333333333</v>
+        <v>645.5333333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>630</v>
       </c>
       <c r="C53" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D53" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E53" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F53" t="n">
-        <v>327.8942</v>
+        <v>489.2892</v>
       </c>
       <c r="G53" t="n">
-        <v>645.6166666666667</v>
+        <v>645.6833333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>630</v>
       </c>
       <c r="C54" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D54" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E54" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F54" t="n">
-        <v>546.4</v>
+        <v>327.8942</v>
       </c>
       <c r="G54" t="n">
-        <v>645.5333333333333</v>
+        <v>645.6166666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C55" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D55" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E55" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F55" t="n">
-        <v>352</v>
+        <v>546.4</v>
       </c>
       <c r="G55" t="n">
-        <v>645.6</v>
+        <v>645.5333333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C56" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D56" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E56" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F56" t="n">
-        <v>397.8578</v>
+        <v>352</v>
       </c>
       <c r="G56" t="n">
-        <v>645.65</v>
+        <v>645.6</v>
       </c>
       <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C57" t="n">
         <v>630</v>
@@ -1847,15 +2017,18 @@
         <v>630</v>
       </c>
       <c r="E57" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F57" t="n">
-        <v>306.3767</v>
+        <v>397.8578</v>
       </c>
       <c r="G57" t="n">
-        <v>645.7833333333333</v>
+        <v>645.65</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C58" t="n">
         <v>630</v>
@@ -1873,15 +2046,18 @@
         <v>630</v>
       </c>
       <c r="E58" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F58" t="n">
-        <v>97.2</v>
+        <v>306.3767</v>
       </c>
       <c r="G58" t="n">
-        <v>645.9333333333333</v>
+        <v>645.7833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C59" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D59" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E59" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F59" t="n">
-        <v>4265</v>
+        <v>97.2</v>
       </c>
       <c r="G59" t="n">
-        <v>646</v>
+        <v>645.9333333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C60" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D60" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E60" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F60" t="n">
+        <v>4265</v>
+      </c>
+      <c r="G60" t="n">
+        <v>646</v>
+      </c>
+      <c r="H60" t="n">
         <v>1</v>
       </c>
-      <c r="G60" t="n">
-        <v>646.1333333333333</v>
-      </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C61" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D61" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E61" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F61" t="n">
-        <v>221.2716</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>646.2</v>
+        <v>646.1333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>626</v>
       </c>
       <c r="C62" t="n">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D62" t="n">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E62" t="n">
         <v>623</v>
       </c>
       <c r="F62" t="n">
-        <v>658.7659</v>
+        <v>221.2716</v>
       </c>
       <c r="G62" t="n">
-        <v>646.1666666666666</v>
+        <v>646.2</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>626</v>
       </c>
       <c r="C63" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D63" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E63" t="n">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F63" t="n">
-        <v>271.2003</v>
+        <v>658.7659</v>
       </c>
       <c r="G63" t="n">
-        <v>646.0833333333334</v>
+        <v>646.1666666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2211,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C64" t="n">
         <v>627</v>
@@ -2029,15 +2220,18 @@
         <v>627</v>
       </c>
       <c r="E64" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F64" t="n">
-        <v>346.3633</v>
+        <v>271.2003</v>
       </c>
       <c r="G64" t="n">
-        <v>646</v>
+        <v>646.0833333333334</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>627</v>
       </c>
       <c r="F65" t="n">
-        <v>344.3934</v>
+        <v>346.3633</v>
       </c>
       <c r="G65" t="n">
-        <v>645.9</v>
+        <v>646</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C66" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D66" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E66" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F66" t="n">
-        <v>30</v>
+        <v>344.3934</v>
       </c>
       <c r="G66" t="n">
-        <v>645.8333333333334</v>
+        <v>645.9</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F67" t="n">
-        <v>7791.7284</v>
+        <v>30</v>
       </c>
       <c r="G67" t="n">
-        <v>645.6666666666666</v>
+        <v>645.8333333333334</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C68" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D68" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E68" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F68" t="n">
-        <v>1024</v>
+        <v>7791.7284</v>
       </c>
       <c r="G68" t="n">
-        <v>645.4833333333333</v>
+        <v>645.6666666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>630</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="G69" t="n">
-        <v>645.2166666666667</v>
+        <v>645.4833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C70" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D70" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E70" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F70" t="n">
-        <v>276.2231</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>644.8666666666667</v>
+        <v>645.2166666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C71" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D71" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E71" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F71" t="n">
-        <v>315</v>
+        <v>276.2231</v>
       </c>
       <c r="G71" t="n">
-        <v>644.6333333333333</v>
+        <v>644.8666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D72" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E72" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F72" t="n">
-        <v>406.4377</v>
+        <v>315</v>
       </c>
       <c r="G72" t="n">
-        <v>644.3166666666667</v>
+        <v>644.6333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C73" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D73" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E73" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F73" t="n">
-        <v>2871.36</v>
+        <v>406.4377</v>
       </c>
       <c r="G73" t="n">
-        <v>643.95</v>
+        <v>644.3166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>625</v>
+      </c>
+      <c r="C74" t="n">
         <v>629</v>
-      </c>
-      <c r="C74" t="n">
-        <v>628</v>
       </c>
       <c r="D74" t="n">
         <v>629</v>
       </c>
       <c r="E74" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F74" t="n">
-        <v>749.1107</v>
+        <v>2871.36</v>
       </c>
       <c r="G74" t="n">
-        <v>643.2666666666667</v>
+        <v>643.95</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C75" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D75" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E75" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="F75" t="n">
-        <v>1690.0218</v>
+        <v>749.1107</v>
       </c>
       <c r="G75" t="n">
-        <v>642.9333333333333</v>
+        <v>643.2666666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C76" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D76" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E76" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F76" t="n">
-        <v>8.365</v>
+        <v>1690.0218</v>
       </c>
       <c r="G76" t="n">
-        <v>642.5166666666667</v>
+        <v>642.9333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C77" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D77" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E77" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F77" t="n">
-        <v>156</v>
+        <v>8.365</v>
       </c>
       <c r="G77" t="n">
-        <v>642.1833333333333</v>
+        <v>642.5166666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C78" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D78" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E78" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F78" t="n">
-        <v>281.0104</v>
+        <v>156</v>
       </c>
       <c r="G78" t="n">
-        <v>641.65</v>
+        <v>642.1833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C79" t="n">
         <v>621</v>
       </c>
       <c r="D79" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E79" t="n">
         <v>621</v>
       </c>
       <c r="F79" t="n">
-        <v>11.105</v>
+        <v>281.0104</v>
       </c>
       <c r="G79" t="n">
-        <v>641.0833333333334</v>
+        <v>641.65</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C80" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D80" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E80" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>11.105</v>
       </c>
       <c r="G80" t="n">
-        <v>640.5833333333334</v>
+        <v>641.0833333333334</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C81" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D81" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E81" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F81" t="n">
-        <v>52.8425</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>639.9333333333333</v>
+        <v>640.5833333333334</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>623</v>
       </c>
       <c r="C82" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D82" t="n">
         <v>623</v>
       </c>
       <c r="E82" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F82" t="n">
-        <v>257.9528</v>
+        <v>52.8425</v>
       </c>
       <c r="G82" t="n">
-        <v>639.1833333333333</v>
+        <v>639.9333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C83" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D83" t="n">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E83" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>257.9528</v>
       </c>
       <c r="G83" t="n">
-        <v>638.3333333333334</v>
+        <v>639.1833333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>625</v>
       </c>
       <c r="C84" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D84" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E84" t="n">
         <v>625</v>
       </c>
       <c r="F84" t="n">
-        <v>1667</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>637.5666666666667</v>
+        <v>638.3333333333334</v>
       </c>
       <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>625</v>
+      </c>
+      <c r="C85" t="n">
         <v>629</v>
       </c>
-      <c r="C85" t="n">
-        <v>630</v>
-      </c>
       <c r="D85" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E85" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F85" t="n">
-        <v>105</v>
+        <v>1667</v>
       </c>
       <c r="G85" t="n">
-        <v>636.8</v>
+        <v>637.5666666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C86" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D86" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E86" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="F86" t="n">
-        <v>137.0987</v>
+        <v>105</v>
       </c>
       <c r="G86" t="n">
-        <v>636.0666666666667</v>
+        <v>636.8</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C87" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D87" t="n">
         <v>628</v>
       </c>
       <c r="E87" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F87" t="n">
+        <v>137.0987</v>
+      </c>
+      <c r="G87" t="n">
+        <v>636.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="G87" t="n">
-        <v>635.5833333333334</v>
-      </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C88" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D88" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E88" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F88" t="n">
-        <v>198.1202</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>635.0333333333333</v>
+        <v>635.5833333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>623</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0001</v>
+        <v>198.1202</v>
       </c>
       <c r="G89" t="n">
-        <v>634.5</v>
+        <v>635.0333333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>623</v>
       </c>
       <c r="F90" t="n">
-        <v>49.2238</v>
+        <v>0.0001</v>
       </c>
       <c r="G90" t="n">
-        <v>633.9333333333333</v>
+        <v>634.5</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C91" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D91" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E91" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F91" t="n">
-        <v>2636.5544</v>
+        <v>49.2238</v>
       </c>
       <c r="G91" t="n">
-        <v>633.5666666666667</v>
+        <v>633.9333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C92" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D92" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E92" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F92" t="n">
-        <v>695.5869</v>
+        <v>2636.5544</v>
       </c>
       <c r="G92" t="n">
-        <v>633.1833333333333</v>
+        <v>633.5666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C93" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D93" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E93" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F93" t="n">
-        <v>3724.6746</v>
+        <v>695.5869</v>
       </c>
       <c r="G93" t="n">
-        <v>632.85</v>
+        <v>633.1833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C94" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D94" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E94" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F94" t="n">
-        <v>3.4156</v>
+        <v>3724.6746</v>
       </c>
       <c r="G94" t="n">
-        <v>632.3333333333334</v>
+        <v>632.85</v>
       </c>
       <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C95" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D95" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E95" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F95" t="n">
-        <v>2236.0644</v>
+        <v>3.4156</v>
       </c>
       <c r="G95" t="n">
-        <v>631.7833333333333</v>
+        <v>632.3333333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>624</v>
       </c>
       <c r="F96" t="n">
-        <v>502.5578</v>
+        <v>2236.0644</v>
       </c>
       <c r="G96" t="n">
-        <v>631.05</v>
+        <v>631.7833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C97" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D97" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E97" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F97" t="n">
-        <v>341.681</v>
+        <v>502.5578</v>
       </c>
       <c r="G97" t="n">
-        <v>630.65</v>
+        <v>631.05</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C98" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D98" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E98" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F98" t="n">
-        <v>562.3778</v>
+        <v>341.681</v>
       </c>
       <c r="G98" t="n">
-        <v>630.05</v>
+        <v>630.65</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>627</v>
       </c>
       <c r="F99" t="n">
-        <v>3444.5831</v>
+        <v>562.3778</v>
       </c>
       <c r="G99" t="n">
-        <v>629.4833333333333</v>
+        <v>630.05</v>
       </c>
       <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C100" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D100" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E100" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F100" t="n">
-        <v>386.4392</v>
+        <v>3444.5831</v>
       </c>
       <c r="G100" t="n">
-        <v>628.8833333333333</v>
+        <v>629.4833333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>624</v>
+      </c>
+      <c r="C101" t="n">
         <v>623</v>
       </c>
-      <c r="C101" t="n">
-        <v>621</v>
-      </c>
       <c r="D101" t="n">
+        <v>624</v>
+      </c>
+      <c r="E101" t="n">
         <v>623</v>
       </c>
-      <c r="E101" t="n">
-        <v>621</v>
-      </c>
       <c r="F101" t="n">
-        <v>2204.758</v>
+        <v>386.4392</v>
       </c>
       <c r="G101" t="n">
-        <v>628.3666666666667</v>
+        <v>628.8833333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C102" t="n">
         <v>621</v>
       </c>
       <c r="D102" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E102" t="n">
         <v>621</v>
       </c>
       <c r="F102" t="n">
-        <v>1685</v>
+        <v>2204.758</v>
       </c>
       <c r="G102" t="n">
-        <v>627.9833333333333</v>
+        <v>628.3666666666667</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C103" t="n">
         <v>621</v>
       </c>
       <c r="D103" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E103" t="n">
         <v>621</v>
       </c>
       <c r="F103" t="n">
-        <v>689</v>
+        <v>1685</v>
       </c>
       <c r="G103" t="n">
-        <v>627.6333333333333</v>
+        <v>627.9833333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>621</v>
       </c>
       <c r="F104" t="n">
-        <v>1667</v>
+        <v>689</v>
       </c>
       <c r="G104" t="n">
-        <v>627.2166666666667</v>
+        <v>627.6333333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C105" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D105" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E105" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F105" t="n">
-        <v>3.5399</v>
+        <v>1667</v>
       </c>
       <c r="G105" t="n">
-        <v>627.0333333333333</v>
+        <v>627.2166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C106" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D106" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E106" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>3.5399</v>
       </c>
       <c r="G106" t="n">
-        <v>626.85</v>
+        <v>627.0333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C107" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D107" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E107" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F107" t="n">
-        <v>3878.6851</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>626.5333333333333</v>
+        <v>626.85</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>621</v>
       </c>
       <c r="F108" t="n">
-        <v>60.2668</v>
+        <v>3878.6851</v>
       </c>
       <c r="G108" t="n">
-        <v>626.2166666666667</v>
+        <v>626.5333333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C109" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D109" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E109" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F109" t="n">
-        <v>4300.0277</v>
+        <v>60.2668</v>
       </c>
       <c r="G109" t="n">
-        <v>625.9833333333333</v>
+        <v>626.2166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>620</v>
       </c>
       <c r="F110" t="n">
-        <v>76.2787</v>
+        <v>4300.0277</v>
       </c>
       <c r="G110" t="n">
-        <v>625.8166666666667</v>
+        <v>625.9833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C111" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="D111" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E111" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F111" t="n">
-        <v>1736.0278</v>
+        <v>76.2787</v>
       </c>
       <c r="G111" t="n">
-        <v>625.4833333333333</v>
+        <v>625.8166666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C112" t="n">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D112" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E112" t="n">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F112" t="n">
-        <v>150</v>
+        <v>1736.0278</v>
       </c>
       <c r="G112" t="n">
-        <v>625.3</v>
+        <v>625.4833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C113" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D113" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E113" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G113" t="n">
-        <v>625.0666666666667</v>
+        <v>625.3</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C114" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D114" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E114" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F114" t="n">
-        <v>93.3742</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>624.8</v>
+        <v>625.0666666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,15 +3699,18 @@
         <v>614</v>
       </c>
       <c r="E115" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F115" t="n">
-        <v>1065.8345</v>
+        <v>93.3742</v>
       </c>
       <c r="G115" t="n">
-        <v>624.5166666666667</v>
+        <v>624.8</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>614</v>
       </c>
       <c r="C116" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D116" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E116" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F116" t="n">
-        <v>3697.8045</v>
+        <v>1065.8345</v>
       </c>
       <c r="G116" t="n">
-        <v>624.3</v>
+        <v>624.5166666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C117" t="n">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D117" t="n">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="E117" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>3697.8045</v>
       </c>
       <c r="G117" t="n">
-        <v>623.9666666666667</v>
+        <v>624.3</v>
       </c>
       <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C118" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D118" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E118" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F118" t="n">
-        <v>98.1354</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>623.7666666666667</v>
+        <v>623.9666666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>618</v>
       </c>
       <c r="C119" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D119" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E119" t="n">
         <v>618</v>
       </c>
       <c r="F119" t="n">
+        <v>98.1354</v>
+      </c>
+      <c r="G119" t="n">
+        <v>623.7666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="G119" t="n">
-        <v>623.6333333333333</v>
-      </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C120" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D120" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E120" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>623.5</v>
+        <v>623.6333333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>622</v>
       </c>
       <c r="F121" t="n">
-        <v>3.3279</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>623.35</v>
+        <v>623.5</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>622</v>
       </c>
       <c r="F122" t="n">
-        <v>25.6721</v>
+        <v>3.3279</v>
       </c>
       <c r="G122" t="n">
-        <v>623.2833333333333</v>
+        <v>623.35</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C123" t="n">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D123" t="n">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E123" t="n">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F123" t="n">
-        <v>69.9999</v>
+        <v>25.6721</v>
       </c>
       <c r="G123" t="n">
-        <v>623.3166666666667</v>
+        <v>623.2833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>629</v>
       </c>
       <c r="F124" t="n">
-        <v>320.9999</v>
+        <v>69.9999</v>
       </c>
       <c r="G124" t="n">
-        <v>623.35</v>
+        <v>623.3166666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C125" t="n">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D125" t="n">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E125" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F125" t="n">
-        <v>3175.7052</v>
+        <v>320.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>623.4333333333333</v>
+        <v>623.35</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,7 +4009,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C126" t="n">
         <v>632</v>
@@ -3641,15 +4018,18 @@
         <v>632</v>
       </c>
       <c r="E126" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F126" t="n">
-        <v>729.7616</v>
+        <v>3175.7052</v>
       </c>
       <c r="G126" t="n">
-        <v>623.4666666666667</v>
+        <v>623.4333333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C127" t="n">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D127" t="n">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E127" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F127" t="n">
-        <v>127</v>
+        <v>729.7616</v>
       </c>
       <c r="G127" t="n">
-        <v>623.6333333333333</v>
+        <v>623.4666666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C128" t="n">
         <v>641</v>
@@ -3693,15 +4076,18 @@
         <v>641</v>
       </c>
       <c r="E128" t="n">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F128" t="n">
-        <v>19.9646</v>
+        <v>127</v>
       </c>
       <c r="G128" t="n">
-        <v>623.8166666666667</v>
+        <v>623.6333333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C129" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D129" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E129" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>19.9646</v>
       </c>
       <c r="G129" t="n">
-        <v>624.0166666666667</v>
+        <v>623.8166666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C130" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D130" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E130" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F130" t="n">
-        <v>1827</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>624.2833333333333</v>
+        <v>624.0166666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>641</v>
       </c>
       <c r="F131" t="n">
-        <v>1047.2959</v>
+        <v>1827</v>
       </c>
       <c r="G131" t="n">
-        <v>624.45</v>
+        <v>624.2833333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C132" t="n">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D132" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="E132" t="n">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="F132" t="n">
-        <v>2887.0249</v>
+        <v>1047.2959</v>
       </c>
       <c r="G132" t="n">
-        <v>624.4666666666667</v>
+        <v>624.45</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C133" t="n">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D133" t="n">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E133" t="n">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>2887.0249</v>
       </c>
       <c r="G133" t="n">
-        <v>624.6333333333333</v>
+        <v>624.4666666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,7 +4241,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C134" t="n">
         <v>639</v>
@@ -3849,15 +4250,18 @@
         <v>639</v>
       </c>
       <c r="E134" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F134" t="n">
-        <v>199.0465</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>624.8166666666667</v>
+        <v>624.6333333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C135" t="n">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="D135" t="n">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="E135" t="n">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F135" t="n">
-        <v>265</v>
+        <v>199.0465</v>
       </c>
       <c r="G135" t="n">
-        <v>624.95</v>
+        <v>624.8166666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,544 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C136" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D136" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E136" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
-        <v>625.0333333333333</v>
+        <v>624.95</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>629</v>
-      </c>
-      <c r="C137" t="n">
-        <v>635</v>
-      </c>
-      <c r="D137" t="n">
-        <v>635</v>
-      </c>
-      <c r="E137" t="n">
-        <v>629</v>
-      </c>
-      <c r="F137" t="n">
-        <v>120</v>
-      </c>
-      <c r="G137" t="n">
-        <v>625.1333333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>632</v>
-      </c>
-      <c r="C138" t="n">
-        <v>635</v>
-      </c>
-      <c r="D138" t="n">
-        <v>635</v>
-      </c>
-      <c r="E138" t="n">
-        <v>632</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1179</v>
-      </c>
-      <c r="G138" t="n">
-        <v>625.3666666666667</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>636</v>
-      </c>
-      <c r="C139" t="n">
-        <v>642</v>
-      </c>
-      <c r="D139" t="n">
-        <v>642</v>
-      </c>
-      <c r="E139" t="n">
-        <v>636</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2540.8836</v>
-      </c>
-      <c r="G139" t="n">
-        <v>625.7166666666667</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>650</v>
-      </c>
-      <c r="C140" t="n">
-        <v>650</v>
-      </c>
-      <c r="D140" t="n">
-        <v>650</v>
-      </c>
-      <c r="E140" t="n">
-        <v>650</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" t="n">
-        <v>626.0833333333334</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>641</v>
-      </c>
-      <c r="C141" t="n">
-        <v>641</v>
-      </c>
-      <c r="D141" t="n">
-        <v>641</v>
-      </c>
-      <c r="E141" t="n">
-        <v>641</v>
-      </c>
-      <c r="F141" t="n">
-        <v>84</v>
-      </c>
-      <c r="G141" t="n">
-        <v>626.3833333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>642</v>
-      </c>
-      <c r="C142" t="n">
-        <v>642</v>
-      </c>
-      <c r="D142" t="n">
-        <v>642</v>
-      </c>
-      <c r="E142" t="n">
-        <v>642</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" t="n">
-        <v>626.7333333333333</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>636</v>
-      </c>
-      <c r="C143" t="n">
-        <v>628</v>
-      </c>
-      <c r="D143" t="n">
-        <v>636</v>
-      </c>
-      <c r="E143" t="n">
-        <v>628</v>
-      </c>
-      <c r="F143" t="n">
-        <v>80</v>
-      </c>
-      <c r="G143" t="n">
-        <v>626.7833333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>633</v>
-      </c>
-      <c r="C144" t="n">
-        <v>633</v>
-      </c>
-      <c r="D144" t="n">
-        <v>633</v>
-      </c>
-      <c r="E144" t="n">
-        <v>633</v>
-      </c>
-      <c r="F144" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="G144" t="n">
-        <v>626.85</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>640</v>
-      </c>
-      <c r="C145" t="n">
-        <v>640</v>
-      </c>
-      <c r="D145" t="n">
-        <v>640</v>
-      </c>
-      <c r="E145" t="n">
-        <v>640</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>627.0166666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>640</v>
-      </c>
-      <c r="C146" t="n">
-        <v>640</v>
-      </c>
-      <c r="D146" t="n">
-        <v>640</v>
-      </c>
-      <c r="E146" t="n">
-        <v>640</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" t="n">
-        <v>627.3166666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>632</v>
-      </c>
-      <c r="C147" t="n">
-        <v>632</v>
-      </c>
-      <c r="D147" t="n">
-        <v>632</v>
-      </c>
-      <c r="E147" t="n">
-        <v>632</v>
-      </c>
-      <c r="F147" t="n">
-        <v>48.2706</v>
-      </c>
-      <c r="G147" t="n">
-        <v>627.3833333333333</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>629</v>
-      </c>
-      <c r="C148" t="n">
-        <v>630</v>
-      </c>
-      <c r="D148" t="n">
-        <v>630</v>
-      </c>
-      <c r="E148" t="n">
-        <v>629</v>
-      </c>
-      <c r="F148" t="n">
-        <v>401.1074</v>
-      </c>
-      <c r="G148" t="n">
-        <v>627.5</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>635</v>
-      </c>
-      <c r="C149" t="n">
-        <v>635</v>
-      </c>
-      <c r="D149" t="n">
-        <v>635</v>
-      </c>
-      <c r="E149" t="n">
-        <v>635</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" t="n">
-        <v>627.7</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>634</v>
-      </c>
-      <c r="C150" t="n">
-        <v>634</v>
-      </c>
-      <c r="D150" t="n">
-        <v>634</v>
-      </c>
-      <c r="E150" t="n">
-        <v>634</v>
-      </c>
-      <c r="F150" t="n">
-        <v>56.108</v>
-      </c>
-      <c r="G150" t="n">
-        <v>627.8833333333333</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>639</v>
-      </c>
-      <c r="C151" t="n">
-        <v>640</v>
-      </c>
-      <c r="D151" t="n">
-        <v>640</v>
-      </c>
-      <c r="E151" t="n">
-        <v>639</v>
-      </c>
-      <c r="F151" t="n">
-        <v>208.0174</v>
-      </c>
-      <c r="G151" t="n">
-        <v>628.15</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>642</v>
-      </c>
-      <c r="C152" t="n">
-        <v>642</v>
-      </c>
-      <c r="D152" t="n">
-        <v>642</v>
-      </c>
-      <c r="E152" t="n">
-        <v>642</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" t="n">
-        <v>628.5</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>637</v>
-      </c>
-      <c r="C153" t="n">
-        <v>637</v>
-      </c>
-      <c r="D153" t="n">
-        <v>637</v>
-      </c>
-      <c r="E153" t="n">
-        <v>637</v>
-      </c>
-      <c r="F153" t="n">
-        <v>56.4585</v>
-      </c>
-      <c r="G153" t="n">
-        <v>628.7166666666667</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>632</v>
-      </c>
-      <c r="C154" t="n">
-        <v>632</v>
-      </c>
-      <c r="D154" t="n">
-        <v>632</v>
-      </c>
-      <c r="E154" t="n">
-        <v>632</v>
-      </c>
-      <c r="F154" t="n">
-        <v>152.139</v>
-      </c>
-      <c r="G154" t="n">
-        <v>628.9</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>637</v>
-      </c>
-      <c r="C155" t="n">
-        <v>637</v>
-      </c>
-      <c r="D155" t="n">
-        <v>637</v>
-      </c>
-      <c r="E155" t="n">
-        <v>637</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1</v>
-      </c>
-      <c r="G155" t="n">
-        <v>629.1166666666667</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>637</v>
-      </c>
-      <c r="C156" t="n">
-        <v>637</v>
-      </c>
-      <c r="D156" t="n">
-        <v>637</v>
-      </c>
-      <c r="E156" t="n">
-        <v>637</v>
-      </c>
-      <c r="F156" t="n">
-        <v>151.139</v>
-      </c>
-      <c r="G156" t="n">
-        <v>629.3333333333334</v>
-      </c>
-      <c r="H156" t="n">
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
